--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3057.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3057.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.2409263760102493</v>
+        <v>1.69037401676178</v>
       </c>
       <c r="B1">
-        <v>0.293865829005653</v>
+        <v>3.327393054962158</v>
       </c>
       <c r="C1">
-        <v>0.4092517516633298</v>
+        <v>6.210051536560059</v>
       </c>
       <c r="D1">
-        <v>0.8707045857836817</v>
+        <v>1.802961826324463</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>0.8911571502685547</v>
       </c>
     </row>
   </sheetData>
